--- a/biology/Médecine/Stratégie_d'adaptation/Stratégie_d'adaptation.xlsx
+++ b/biology/Médecine/Stratégie_d'adaptation/Stratégie_d'adaptation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_d%27adaptation</t>
+          <t>Stratégie_d'adaptation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stratégie d'adaptation est un mécanisme de psychologie. Employées au pluriel, les stratégies d'adaptation représentent l'ensemble des actions qu'un individu ou qu'un groupe mettent en œuvre afin de résoudre les problèmes auxquels ils sont confrontés.
 Les stratégies tiennent compte du processus de résolution de problèmes (souvent employé dans le cadre de la psychothérapie cognitivo-comportementale) de sa motivation, de ses valeurs ainsi que de ses buts, afin d'entrer en phase de résilience.
